--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 5.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 5.xlsx_with_dialog_acts.xlsx
@@ -615,12 +615,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1587,12 +1587,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1875,12 +1875,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2091,12 +2091,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2631,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2703,12 +2703,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3531,12 +3531,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4291,12 +4291,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
